--- a/src/test/resources/testdata/EasyQuoteL4.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL4.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Translation" sheetId="3" r:id="rId1"/>
+    <sheet name="Transcription" sheetId="4" r:id="rId1"/>
+    <sheet name="Translation" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="110">
   <si>
     <t>Source</t>
   </si>
@@ -152,12 +153,205 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Court hearings</t>
+  </si>
+  <si>
+    <t>Dictation notes</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Wolof</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>273.0</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>262.5</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>310.0</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>325.5</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>610.0</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>640.5</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>1210.0</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>1270.5</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>138.6</t>
+  </si>
+  <si>
+    <t>516.0</t>
+  </si>
+  <si>
+    <t>526.0</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>552.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -207,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +430,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,111 +797,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="11.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="6" style="9" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" style="9" width="11.5703125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45">
+    <row r="1" spans="1:20" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>40</v>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.5" customHeight="1">
+    <row r="2" spans="1:20" ht="28.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>41</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -711,33 +909,30 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" ht="28.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:20" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>41</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -750,33 +945,30 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
+    </row>
+    <row r="4" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -784,38 +976,35 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" ht="28.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:20" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -823,38 +1012,35 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
+    </row>
+    <row r="6" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -867,33 +1053,30 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="7" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -906,33 +1089,30 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="8" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -945,33 +1125,30 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="9" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -984,33 +1161,30 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="10" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1023,33 +1197,30 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
+    </row>
+    <row r="11" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1062,33 +1233,30 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="12" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1101,33 +1269,30 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="13" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1140,33 +1305,30 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+    </row>
+    <row r="14" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1179,33 +1341,30 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="15" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1218,7 +1377,1009 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="28.5" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -1233,11 +2394,11 @@
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>120</v>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>45</v>
@@ -1245,19 +2406,45 @@
       <c r="H16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="28.5" customHeight="1">
       <c r="A17" s="3" t="s">
@@ -1272,11 +2459,11 @@
       <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3">
-        <v>120</v>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>45</v>
@@ -1284,19 +2471,45 @@
       <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="28.5" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -1311,11 +2524,11 @@
       <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>120</v>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>45</v>
@@ -1323,19 +2536,45 @@
       <c r="H18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="28.5" customHeight="1">
       <c r="A19" s="7" t="s">
@@ -1350,11 +2589,11 @@
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3">
-        <v>12</v>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>45</v>
@@ -1362,19 +2601,45 @@
       <c r="H19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="28.5" customHeight="1">
       <c r="A20" s="3" t="s">
@@ -1389,11 +2654,11 @@
       <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="4">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3">
-        <v>43</v>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>45</v>
@@ -1401,19 +2666,45 @@
       <c r="H20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="28.5" customHeight="1">
       <c r="A21" s="3" t="s">
@@ -1428,11 +2719,11 @@
       <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>120</v>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>45</v>
@@ -1440,19 +2731,45 @@
       <c r="H21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="28.5" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -1467,11 +2784,11 @@
       <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>120</v>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>45</v>
@@ -1479,19 +2796,45 @@
       <c r="H22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
